--- a/v0.7/StructureDefinition-HCXSignatureExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXSignatureExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
